--- a/엑셀과코딩사이.xlsx
+++ b/엑셀과코딩사이.xlsx
@@ -9,20 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="8280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="시" sheetId="1" r:id="rId1"/>
-    <sheet name="도" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId4"/>
+    <sheet name="도" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="15">
   <si>
     <t>천안</t>
   </si>
@@ -539,7 +542,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -676,6 +679,838 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO4"/>
+  <sheetViews>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
+      <c r="AC1">
+        <v>27</v>
+      </c>
+      <c r="AD1">
+        <v>28</v>
+      </c>
+      <c r="AE1">
+        <v>29</v>
+      </c>
+      <c r="AF1">
+        <v>30</v>
+      </c>
+      <c r="AG1">
+        <v>31</v>
+      </c>
+      <c r="AH1">
+        <v>32</v>
+      </c>
+      <c r="AI1">
+        <v>33</v>
+      </c>
+      <c r="AJ1">
+        <v>34</v>
+      </c>
+      <c r="AK1">
+        <v>35</v>
+      </c>
+      <c r="AL1">
+        <v>36</v>
+      </c>
+      <c r="AM1">
+        <v>37</v>
+      </c>
+      <c r="AN1">
+        <v>38</v>
+      </c>
+      <c r="AO1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>21</v>
+      </c>
+      <c r="W2">
+        <v>22</v>
+      </c>
+      <c r="X2">
+        <v>23</v>
+      </c>
+      <c r="Y2">
+        <v>24</v>
+      </c>
+      <c r="Z2">
+        <v>25</v>
+      </c>
+      <c r="AA2">
+        <v>26</v>
+      </c>
+      <c r="AB2">
+        <v>27</v>
+      </c>
+      <c r="AC2">
+        <v>28</v>
+      </c>
+      <c r="AD2">
+        <v>29</v>
+      </c>
+      <c r="AE2">
+        <v>30</v>
+      </c>
+      <c r="AF2">
+        <v>31</v>
+      </c>
+      <c r="AG2">
+        <v>32</v>
+      </c>
+      <c r="AH2">
+        <v>33</v>
+      </c>
+      <c r="AI2">
+        <v>34</v>
+      </c>
+      <c r="AJ2">
+        <v>35</v>
+      </c>
+      <c r="AK2">
+        <v>36</v>
+      </c>
+      <c r="AL2">
+        <v>37</v>
+      </c>
+      <c r="AM2">
+        <v>38</v>
+      </c>
+      <c r="AN2">
+        <v>39</v>
+      </c>
+      <c r="AO2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>47</v>
+      </c>
+      <c r="I3">
+        <v>48</v>
+      </c>
+      <c r="J3">
+        <v>49</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>51</v>
+      </c>
+      <c r="M3">
+        <v>52</v>
+      </c>
+      <c r="N3">
+        <v>53</v>
+      </c>
+      <c r="O3">
+        <v>54</v>
+      </c>
+      <c r="P3">
+        <v>55</v>
+      </c>
+      <c r="Q3">
+        <v>56</v>
+      </c>
+      <c r="R3">
+        <v>57</v>
+      </c>
+      <c r="S3">
+        <v>58</v>
+      </c>
+      <c r="T3">
+        <v>59</v>
+      </c>
+      <c r="U3">
+        <v>60</v>
+      </c>
+      <c r="V3">
+        <v>61</v>
+      </c>
+      <c r="W3">
+        <v>62</v>
+      </c>
+      <c r="X3">
+        <v>63</v>
+      </c>
+      <c r="Y3">
+        <v>64</v>
+      </c>
+      <c r="Z3">
+        <v>65</v>
+      </c>
+      <c r="AA3">
+        <v>66</v>
+      </c>
+      <c r="AB3">
+        <v>67</v>
+      </c>
+      <c r="AC3">
+        <v>68</v>
+      </c>
+      <c r="AD3">
+        <v>69</v>
+      </c>
+      <c r="AE3">
+        <v>70</v>
+      </c>
+      <c r="AF3">
+        <v>71</v>
+      </c>
+      <c r="AG3">
+        <v>72</v>
+      </c>
+      <c r="AH3">
+        <v>73</v>
+      </c>
+      <c r="AI3">
+        <v>74</v>
+      </c>
+      <c r="AJ3">
+        <v>75</v>
+      </c>
+      <c r="AK3">
+        <v>76</v>
+      </c>
+      <c r="AL3">
+        <v>77</v>
+      </c>
+      <c r="AM3">
+        <v>78</v>
+      </c>
+      <c r="AN3">
+        <v>79</v>
+      </c>
+      <c r="AO3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>85</v>
+      </c>
+      <c r="G4">
+        <v>86</v>
+      </c>
+      <c r="H4">
+        <v>87</v>
+      </c>
+      <c r="I4">
+        <v>88</v>
+      </c>
+      <c r="J4">
+        <v>89</v>
+      </c>
+      <c r="K4">
+        <v>90</v>
+      </c>
+      <c r="L4">
+        <v>91</v>
+      </c>
+      <c r="M4">
+        <v>92</v>
+      </c>
+      <c r="N4">
+        <v>93</v>
+      </c>
+      <c r="O4">
+        <v>94</v>
+      </c>
+      <c r="P4">
+        <v>95</v>
+      </c>
+      <c r="Q4">
+        <v>96</v>
+      </c>
+      <c r="R4">
+        <v>97</v>
+      </c>
+      <c r="S4">
+        <v>98</v>
+      </c>
+      <c r="T4">
+        <v>99</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4">
+        <v>101</v>
+      </c>
+      <c r="W4">
+        <v>102</v>
+      </c>
+      <c r="X4">
+        <v>103</v>
+      </c>
+      <c r="Y4">
+        <v>104</v>
+      </c>
+      <c r="Z4">
+        <v>105</v>
+      </c>
+      <c r="AA4">
+        <v>106</v>
+      </c>
+      <c r="AB4">
+        <v>107</v>
+      </c>
+      <c r="AC4">
+        <v>108</v>
+      </c>
+      <c r="AD4">
+        <v>109</v>
+      </c>
+      <c r="AE4">
+        <v>110</v>
+      </c>
+      <c r="AF4">
+        <v>111</v>
+      </c>
+      <c r="AG4">
+        <v>112</v>
+      </c>
+      <c r="AH4">
+        <v>113</v>
+      </c>
+      <c r="AI4">
+        <v>114</v>
+      </c>
+      <c r="AJ4">
+        <v>115</v>
+      </c>
+      <c r="AK4">
+        <v>116</v>
+      </c>
+      <c r="AL4">
+        <v>117</v>
+      </c>
+      <c r="AM4">
+        <v>118</v>
+      </c>
+      <c r="AN4">
+        <v>119</v>
+      </c>
+      <c r="AO4">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B7"/>
@@ -752,7 +1587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -908,7 +1743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F8"/>
